--- a/searchlinkedin/backup-100.xlsx
+++ b/searchlinkedin/backup-100.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,4184 +440,7186 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Profile</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>title+company</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Person Linkedin Url</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Company On Badge</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Provstate</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date Registered</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>linkedin_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>linkedin_title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>linkedinProfile</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>match_linkedin_full</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>match_linkedin_name</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>match_linkedin_title</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>match_linkedin_company</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>linkedinPost</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>rocket</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>linkedinPost</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gray Ainsworth</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/228183?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EVP, Technical Operations &amp; Delivery at Lionsgate Entertainment</t>
+          <t>Bill Patterson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gray Ainsworth</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Gray Ainsworth - Santa Monica, California, United States</t>
-        </is>
-      </c>
+          <t>1billpatterson@gmail.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/gray-ainsworth-5b8731</t>
+          <t>Host / Executive Producer</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>Let's Go Flying LLC</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Bill Patterson</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Bill Patterson - Media Entrepreneur, Investor, Producer</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/wmpatterson</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/gray-ainsworth-email_255453713</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chris Allan</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/204683?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VP Sales at vindicia</t>
+          <t>Alina Pakhaeva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chris Allan</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Chris Allan - Vindicia</t>
-        </is>
-      </c>
+          <t>a.pakhaeva@iplus.llc</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/lchrisallan</t>
+          <t>Director of Programming</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>Infinitas</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/chris-allan-email_2868532</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>Kyiv</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Katie Allen</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/228357?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Katie Allen</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Katie Allen - Kutta Technologies, Inc.</t>
-        </is>
-      </c>
+          <t>Alberto Calabrò</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/katie-allen-bb198410b</t>
+          <t>Account Director</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Telxius</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Alberto Calabro'</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Alberto Calabro' - Telecom Sales Leader at Telxius</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/calabroalberto</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/calabroalberto_itw2021-activity-6834237879934353408-Va7R</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/alberto-calabro-email_39518344</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Meegan Andes</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/189413?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Abdullah Al Safadi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Meegan Andes</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Meegan Andes - Office Coordinator - DEG</t>
-        </is>
-      </c>
+          <t>abdullah_rising@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/meeganandes</t>
+          <t>Owner</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>INT Rising</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Amman</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Abdullah Al</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Abdullah Al-safadi - general mananger at international ...</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://jo.linkedin.com/in/abdullah-al-safadi-2683608a</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Azita Arvani</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/223182?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Senior Advisor at Markit.Place</t>
+          <t>Nancy Pardeiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Azita Arvani, Stanford Sloan Fellow</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Azita Arvani, Stanford Sloan Fellow - Sensors Converge</t>
-        </is>
-      </c>
+          <t>accounting@safetv.org</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/azitaarvani</t>
+          <t>Corporate Secretary/Treasurer</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>Safe TV</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>Springdale</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/azitaarvani_ai-networking-mwclasvegas-activity-7250336585752162304-SQSO</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Marlie Austin</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/214922?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Adam Harman</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marlie Austin</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Marlie Austin - Assistant Manager - Worldwide New Media ...</t>
-        </is>
-      </c>
+          <t>adam.harman@scripps.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/marlie-austin-6b82a580</t>
+          <t>SVP Original Content and Acquisition</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Scripps Networks</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://rocketreach.co/marlie-keeling-email_15452014</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/the-e-w-scripps-company_scripps-hires-former-ae-executive-to-steer-activity-7274541116673134593-wuKK</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dilip Bala</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/214836?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SVP &amp; GM at Merzigo</t>
+          <t>Adriana Calvo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dilip Bala</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Dilip Bala - SVP &amp; GM, U.S. - Merzigo, a Key Networks ...</t>
-        </is>
-      </c>
+          <t>adriana.calvo@canal-plus.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/dilipbala</t>
+          <t>Sales Executive</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>Canal+ Distribution</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>45973</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Adriana Calvo</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Adriana Calvo - Head of Programming at THEMA TV</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/adriana-calvo-9721a929</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/dilip-bala-email_1077380</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/dilipbala_had-a-great-time-on-evan-shap%C4%ABros-and-marion-activity-7333891120252293140-fwoB</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Todd Barasch</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227761?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Advisor</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Todd Barasch</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Todd Barasch - Happy Accidents</t>
-        </is>
-      </c>
+          <t>Anna Moorefield</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/toddbarasch</t>
+          <t>Acquisitions</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>NBCUniversal</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>Universal City</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>46014</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Anna Moorefield</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Anna Moorefield - NBCUniversal</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/annamoorefield</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/todd-barasch-email_52994164</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/toddbarasch_great-to-connect-and-reconnect-with-so-many-activity-7264379129012129792-9DB2</t>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/anna-moorefield-email_9059627</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colleen Barjas</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/199255?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>Ani Khostegyan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>akhosteg@amazon.com</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sr. Manager North American TV Distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Amazon MGM Studios</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Beverly Hills</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/colleen-barjas-ssm-a58266112_on-friday-i-wrapped-up-an-absolutely-life-changing-activity-7246583483156848640-KRND</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Ani Khostegyan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Ani Khostegyan - MGM</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ani-khostegyan-7280b7b</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>27.27%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mark Barnes</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/194344?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Alberto Gomez Paredes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mark Barnes</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Mark Barnes - United Kingdom | Professional Profile</t>
-        </is>
-      </c>
+          <t>albertogomez@premiumcom.com.ar</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/mark-barnes-52237</t>
+          <t>Programming Manager</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Telcom Ventures S.A.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/mark-barnes-email_3081674</t>
-        </is>
-      </c>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/logosbible_episode-72-mark-barnes-with-great-power-activity-7298489107880517632-L7Lw</t>
-        </is>
-      </c>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shawn Barrett</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227882?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Co- founder / Producer at Hollywood Broadcast Studios</t>
+          <t>Alex Iosilevich</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Shawn C. Barrett</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Shawn C. Barrett - TCL Chinese Theatres</t>
-        </is>
-      </c>
+          <t>alex@alignmentgrowth.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/shawn-c-barrett-67867412</t>
+          <t>Co-Founder and Managing Partner</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>Alignment Growth</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Alex Iosilevich</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Alex Iosilevich - New York, New York, United States</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alex-iosilevich-0b343167</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/shawn-barrett-email_1256442</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Meghann Bass</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/210830?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Group Creative Director at Plex</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Meghann Bass</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Meghann Bass - Group Creative Director - Plex, Inc.</t>
-        </is>
-      </c>
+          <t>Signe Bruntse</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/meghannbass</t>
+          <t>Acquisitions Executive</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>DR TV/Danish Broadcasting Corporation</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>Copenhagen</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Signe Bruntse</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Signe Bruntse - Acquisition | Curation | Publishing</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://dk.linkedin.com/in/signebruntse</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/meghann-bass-email_55514560</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/signe-bruntse-email_82420281</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Justin Beaudin</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/210961?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>Alex Wright</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Justin Beaudin</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Justin Beaudin - Adapt</t>
-        </is>
-      </c>
+          <t>alexander.wright@sky.uk</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/justinbeaudin</t>
+          <t>Acquisitions Manager</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Sky TV</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>Isleworth</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Alex Wright</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Alex Wright - Acquisitions Manager at Sky</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/alex-wright-9836b3b0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/justin-beaudin-email_1424845</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/justinbeaudin_nvidiainception-activity-7289710508792856576-q4xd</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Shane Bierley</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/216038?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Alexandra Panousis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Shane Brierley</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Shane Brierley - Data Migration Analyst - MUFG Pension &amp; ...</t>
-        </is>
-      </c>
+          <t>alexandra.panousis@gmail.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://au.linkedin.com/in/shane-brierley-662a2560</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>50.0%</t>
-        </is>
-      </c>
+          <t>Former Agency CEO</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/shanebrierley_heres-to-continued-progress-in-2025-follow-activity-7279536188158328832-68FB</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aleksandar Bijedic</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/228497?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vice President, Technology &amp; Analytics at PBS Distribution</t>
+          <t>Alexandra Vogelsang</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aleksandar Bijedic</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Aleksandar Bijedic - PBS Distribution</t>
-        </is>
-      </c>
+          <t>alexandra@haberinc.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/aleksandarbijedic</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>Alfred Haber Distribution</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Palisades Park</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://rocketreach.co/aleksandar-bijedic-email_17129779</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>46037</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jason Blagman</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/202750?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Partnerships &amp; Business Development</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Jason Blagman</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Jason Blagman - Los Angeles, California, United States</t>
-        </is>
-      </c>
+          <t>Jose Monroy</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/jasonwblagman</t>
+          <t>Acquisitions Manager</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>Library Kingdom Co. Establishment Inc.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>Las Vegas</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Jose Monroy</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Jose Monroy - I am a sales and acquisition manager ...</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/josemonroyr</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/jason-blagman-email_37161421</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>David Bloom</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/226902?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Senior Contributor at Forbes</t>
+          <t>Alyssa Moreinis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>David Bloom</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>David Bloom - Next TMT</t>
-        </is>
-      </c>
+          <t>alyssa.moreinis@scripps.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/davidlbloom</t>
+          <t>Lead Manager of Development</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>Scripps Co</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+          <t>Cincinnati</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Doug Bloom</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227421?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Media &amp; Entertainment at BRIA AI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Doug Bloom</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Doug Bloom - Cornwall, Connecticut, United States</t>
-        </is>
-      </c>
+          <t>TK Russell</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/doug-bloom</t>
+          <t>Actor</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>Livin' in Black &amp; White Sitcom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Highlands Ranch</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://rocketreach.co/douglas-bloom-email_14538114</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spence Bovee</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227420?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Managing Director at Siganaka Medía Group</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Spence Bovee</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Spence Bovee - Entre.One</t>
-        </is>
-      </c>
+          <t>Nick Steitz</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/spencebovee</t>
+          <t>Actor</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>Livin' in Black &amp; White Sitcom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>Highlands Ranch</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/spencebovee_variety-varietyenttech-activity-7246929412892344320-BSms</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Stephen Boykin</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/216041?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Artist Process Manager at The Sherlock Company</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Stephen Boykin</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Stephen Boykin - Digital Content Production &amp; Workflow</t>
-        </is>
-      </c>
+          <t>Annie O'Brien</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/stephen-boykin-88344342</t>
+          <t>Business Development &amp; Content Acquisitions</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>Samsung TV Plus</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Annie O'Brien (Hovland)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Annie O'Brien (Hovland) - Business Development &amp; ...</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/annie-o-brien-hovland-55908724</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/annie-obrien-email_228647784</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jeff Brown</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/215873?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Content Partnerships at Patagonia Films</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Jeff Brown</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Jeff Brown - Partner - jackknife films</t>
-        </is>
-      </c>
+          <t>Jessica Saginaw</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/jeff-brown-bb3a9a7</t>
+          <t>Business Development Director, North America</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>wedotv</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Zug</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/jzanan_looking-forward-to-heading-to-cannes-in-a-activity-7378470462500126720-OhxW</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>John Buffone</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/198370?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vice President, Industry Advisor at Circana</t>
+          <t>Andrea Bravo Puerta</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>John Buffone</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>John Buffone - Vice President, Industry Advisor - The NPD ...</t>
-        </is>
-      </c>
+          <t>andreabravoproducer@gmail.com</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/john-buffone-17a84b7</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>75.0%</t>
-        </is>
-      </c>
+          <t>Productora | Directora</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Cali</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/agoldman1_circanas-vice-president-of-media-entertainment-activity-7305233563694628865-yw4Y</t>
-        </is>
-      </c>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ginger Bushell</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/228086?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chief Strategy Officer at Gracenote</t>
+          <t>Andrew Feltenstein</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ginger Bushell</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Ginger Bushell - Los Angeles, California, United States</t>
-        </is>
-      </c>
+          <t>andrew@sushiandfrenchfries.com</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/ginger-bushell-572830</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>Sushi+FrenchFries</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Bozeman</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://rocketreach.co/ginger-bushell-email_3440386</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>National Capital Territory</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chris Carey</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/219274?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>EVP, Americas Operations at Iyuno</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Chris Carey</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Chris Carey - Iyuno</t>
-        </is>
-      </c>
+          <t>Bridget Kirkner</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/chcarey</t>
+          <t>Carer</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>Shake The Tree Productions</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>West Chester</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/iyunohq_iyunos-chris-carey-has-stepped-into-a-new-activity-7000956740477349888-hz2l</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Amy Casanova</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/196643?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Global Business Development, Localization - Audio Development at Keywords Studios</t>
+          <t>Ángeles Pérez Aguirre</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Amy Casanova</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Amy Casanova - Business Development, Media &amp; ...</t>
-        </is>
-      </c>
+          <t>angeles@newslinereport.net</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/amy-casanova-1443758</t>
+          <t>Editor</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>Newsline Report Magazine</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Glen Catarroja</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227485?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Glen Catarroja, PMP</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Glen Catarroja, PMP - The Walt Disney Company</t>
-        </is>
-      </c>
+          <t>Alma Baca</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/glen-catarroja</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Collot Baca Media</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/glen-catarroja_certificate-of-completion-activity-7177048361294856193-sHSo</t>
-        </is>
-      </c>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Benjamin Caveen</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/187778?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Marketing Manager at Bango</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Benjamin Caveen</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Benjamin Caveen - Bango</t>
-        </is>
-      </c>
+          <t>Daniela Bagliani</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/caveen94</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>Full Board Media Srl</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Daniela Bagliani</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Daniela Bagliani - Full Board Media srl</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://it.linkedin.com/in/daniela-bagliani-8104846</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/benjamin-caveen-email_40898803</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/caveen94_digital-vending-machine-from-bango-the-activity-7300095500404342785-Vr_c</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Carson Chastain</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/193957?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Intern at Screen Engine/Asi</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>Andres Romero</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ar@snacksprojects.com</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Snacks Projects</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Andres Romero</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Andres Romero - Executive Producer | Showrunner</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/andyromerotv</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/andres-romero-email_45055120</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Benson Cheung</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/210635?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>US Distribution Manager at Amazon MGM Studios</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Benson Cheung</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Benson Cheung - Distribution at Amazon MGM Studios</t>
-        </is>
-      </c>
+          <t>Carlos Cuscó</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/benson-cheung</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>Foton</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+          <t>Coral Gables</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/ari-taboada-a5a72826_the-uninvited-world-premier-at-sxsw-activity-7173376850147110913-8gt0</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Stephen Chiu</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/197593?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Arunkanth Venugopal</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Stephen Chiu</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Stephen Chiu - Manager - Tech Global International Co Ltd</t>
-        </is>
-      </c>
+          <t>arun.kanth@akonline.app</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://hk.linkedin.com/in/stephen-chiu-6b2671232</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>AK Online - OTT Platform by Info Pluto Media Works</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/stephen-chiu-email_707794697</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>Coimbatore</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hunter Clancey</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/207954?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Manager, Studio Mastering at NBCUniversal</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Hunter Clancey</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Hunter Clancey - Manager, Studio Mastering - NBCUniversal</t>
-        </is>
-      </c>
+          <t>Sonia Fleck</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/hunterclancey</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>Bomanbridge Media Pte Ltd</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Sonia Fleck</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Sonia Fleck - CEO at Bomanbridge Media</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://sg.linkedin.com/in/soniafleck123</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/bomanbridge-media-management_b5ff8f60f61b0814</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Max Cleary</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/217126?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Aymon DeMauro</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Max Cleary</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Max Cleary - Common Sense Machines</t>
-        </is>
-      </c>
+          <t>aymon@careco.tv</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/max-cleary-25913225</t>
+          <t>Managing Director of Media Partnerships</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Careco Multimedia Entertainment, LLC</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Aymon DeMauro</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Aymon DeMauro - Media &amp; Marketing Executive ...</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/aymon-demauro-22480b4</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>27.27%</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/max-cleary-email_1549191</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/max-cleary-25913225_aiinnovation-3dtech-startuplife-activity-7275853412934586368-HN1k</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Scott Cler</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/217310?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sr. Industry Specialist Business Development | Media &amp; Entertainment, Games, and Sports at AWS</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Scott Cler</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Scott Cler - Global Partner Segment Lead, Creative Tools</t>
-        </is>
-      </c>
+          <t>Dominic Ianno</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/scott-cler</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>14.29%</t>
+          <t>Roundtable Entertainment</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Dominic Ianno</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Dominic Ianno - Roundtable Entertainment</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dianno</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>80.0%</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/scott-bartlett-email_34868175</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/dominic-ianno-email_32263312</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Timothy Coats</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/225905?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Account Executive</t>
+          <t>John Baghdassarian</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Timothy Coats</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Timothy Coats - Senior Account Executive - MinIO</t>
-        </is>
-      </c>
+          <t>baghdassarianj@gmail.com</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/timothyjcoats</t>
+          <t>VP of Content Strategy and Acquisitions</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>JB Streaming</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>North Hollywood</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>V John Baghdassarian</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>V John Baghdassarian - Olympusat</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/vjohnbaghdassarian</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/tim-coats-email_35131771</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nate Cohn</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/223656?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Elizabeth Bannan Atcheson</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nathaniel Cohn</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Nathaniel Cohn - Software Development Engineer In Test</t>
-        </is>
-      </c>
+          <t>bannan.atcheson@wbd.com</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/nathanielcohnweb110099</t>
+          <t>VP, Content Acquisition</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Warner Bros. Discovery</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Elizabeth Bannan Atcheson</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Elizabeth Bannan Atcheson - Atlanta, Georgia, United States</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/elizabeth-bannan-atcheson-a614772</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>50.0%</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Peter Conceicao</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/212456?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Beej Gefsky</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pedro Conceição</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Pedro Conceição - Porto, Porto, Portugal | Perfil profissional</t>
-        </is>
-      </c>
+          <t>beej@dooya.tv</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://pt.linkedin.com/in/pedro-concei%C3%A7%C3%A3o-03593a155</t>
+          <t>SVP Content Acquisitions</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>Dooya Media Group</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+          <t>Saugus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Beej Gefsky</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Beej Gefsky - Los Angeles, California, United States</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bgefsky</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/beej-gefsky-email_7563865</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lucia Contreras</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/226409?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Conference Director at StreamTV Show</t>
+          <t>Bento Aladin</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lucia Contreras, CEM</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Lucia Contreras, CEM - Conference Director, Technology ...</t>
-        </is>
-      </c>
+          <t>bla@tagstudios.com</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/lucia-contreras1</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>Shuhari Productions, LLC</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>Sandy Springs</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/lucia-contreras1_stream-tv-show-activity-7303493186356658178-8Dps</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Benton L. Aladin</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Benton L. Aladin - Shuhari Productions</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/benton-l-aladin-b59a7b7</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Tony Cunha</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/215194?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CEO at Duplitech</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Anthony Cunha</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Anthony Cunha - Duplitech</t>
-        </is>
-      </c>
+          <t>Xavier Kochhar</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/anthony-cunha-3222b27</t>
+          <t>CEO &amp; General Partner</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>40.0%</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+          <t>XKE Capital</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Xavier K.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Xavier K. - Los Angeles, California, United States</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/xavierkochhar</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
         <is>
           <t>50.0%</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/anthony-cunha-email_10295313</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/xavier-kochhar-email_2853463</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Timothy Cuthbertson</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/190877?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CSS</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Tim Cuthbertson</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Tim Cuthbertson - Chief Sales Officer (CSO) - Teamium.io</t>
-        </is>
-      </c>
+          <t>Luis Daniel Capriles</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/timcuthbertson</t>
+          <t>CEO and Managing Director</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>Newflix Media Group</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>Coral Gables</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Luis Daniel Capriles</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Luis Daniel Capriles - Miami, Florida, United States</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/luicapriles</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/daniel-capriles-email_239803694</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Briana D'Ambrosia</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/205308?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Barbara Musa</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Brie D'Ambrosia</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Brie D'Ambrosia - Brand Manager, Paramount Home ...</t>
-        </is>
-      </c>
+          <t>bmruiz@televisaunivision.com</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/briana-dambrosia</t>
+          <t>VP of Programming</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>Univision</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Barbara Musa Ruiz</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Barbara Musa Ruiz - Univision</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/barbara-musa-ruiz-4847a55</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>50.0%</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/barbara-musa-ruiz-4847a55_me-encanta-so-proud-to-be-a-part-of-this-activity-6986759895500922881-eRHU?trk=public_profile_like_view</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Guilherme DaSilva</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/194250?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CEO at BeTV Media Tech</t>
+          <t>Jens Richter</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>CEO Commercial and International</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Fremantle Media Limited</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Jens Richter</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Jens Richter - CEO Commercial and International Fremantle</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/jens-richter-31b03399</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mariana Danilovic</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/206348?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Managing Director at Hollywood Portfolio</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Mariana Danilovic</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Mariana Danilovic - Hollywood Portfolio</t>
-        </is>
-      </c>
+          <t>Geoff Clark</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/marianadanilovic</t>
+          <t>CEO of Documentary+ &amp; acTVe, Founder Free Live Sports</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>Documentary+ &amp; acTVe, Free Live Sports</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
+          <t>West Hollywood</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Geoff Clark</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Geoff Clark - CEO | Streaming Television | Film &amp; TV ...</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/geoffreyjamesclark</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>30.0%</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/mariana-danilovic-email_25800889</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/geoffreyjamesclark_streaming-documentary-activity-7371316378034765824-nHkL</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/geoffrey-clark-email_5446454</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Terri Davies</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227068?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>President at Trusted Partner Network</t>
+          <t>Brook Peters</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Terri Davies</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Terri Davies - President, Trusted Partner Network (TPN)</t>
-        </is>
-      </c>
+          <t>brook.peters@fox.com</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/terri-davies-8bb3591</t>
+          <t>SVP, Sales</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Brook Peters</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Brook Peters - SVP Sales &amp; Business Development ...</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>https://ca.linkedin.com/in/brookpeters</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>80.0%</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/terri-davies-email_71652362</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/terri-davies-8bb3591_iwd-activity-7312827619501060096-N8Bk</t>
-        </is>
-      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Christy Decker</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/228171?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Brooke Meister</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Christy Decker</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Christy Decker - Project Manager - OFS</t>
-        </is>
-      </c>
+          <t>brooke@linkcreatormgmt.com</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/christy-decker-08a88716b</t>
+          <t>Managing Director</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Link Management</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
+          <t>XXXXX</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Brooke Meister</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Brooke Meister - VP of Merchandising, Women's Fashion</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/brooke-meister-6758034</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/christy-decker-email_35316746</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/brooke-meister-email_4997366</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>John Dick</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/194491?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Founder and CEO at CivicScience</t>
+          <t>Bruce Rabinowitz</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>John Dick</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>John Dick - Civic Science, Inc.</t>
-        </is>
-      </c>
+          <t>bruce1@nyc.rr.com</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/johndick</t>
+          <t>International Acquisitions</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>RAI Com S.p.A.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://rocketreach.co/john-dick-email_1219035</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/johndick_one-of-the-more-fascinating-conversations-activity-7236461588889698304-Bb6k</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Michael Dodd</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/215868?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Manager at Lionsgate Entertainment</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Michael Dodd</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Michael Dodd - Manager, Account Services - Lionsgate</t>
-        </is>
-      </c>
+          <t>Andrew Latimer</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/michael-dodd-3babb731</t>
+          <t>CEO, Founder</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Bluewater Media</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Clearwater</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Andy Latimer</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Andy Latimer - Founder and CEO @ Bluewater a Growth ...</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/andy-latimer-3873329</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/andy-latimer-email_2224459</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Heather Dowdy</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/222624?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Director, Product Accessibility at Netflix</t>
+          <t>Carlos Pardeiro</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Heather Dowdy</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Heather Dowdy - Charlotte, North Carolina, United States</t>
-        </is>
-      </c>
+          <t>carlosp@ipa.net</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/heatherdowdy</t>
+          <t>President/CEO</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>Safe TV</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>Springdale</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/heatherdowdy_accessibility-techforgood-activity-7323857045714071553-6boR</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ceren Dulgar</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227636?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Field Marketing Manager at Mediagenix</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Ceren Dulgar</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Ceren Dulgar - Mediagenix</t>
-        </is>
-      </c>
+          <t>Tejas Shah</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/dulgarc</t>
+          <t>Chief Business Officer</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>Gennie Studio</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Tejas Shah</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Tejas Shah - Co-Founder @ Gennie AI</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/tejas-shah-33736310</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>42.86%</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/dulgarc_imnotcryingyourecrying-theperfectsendoff-activity-7312474706475933697-Lkq2</t>
-        </is>
-      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Matthew Durgin</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/194884?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VP North America Content and Services at LG Electronics</t>
+          <t>Catherine Zhang</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Matthew Durgin</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Matthew Durgin - New York City Metropolitan Area</t>
-        </is>
-      </c>
+          <t>catherine.m.zhang@tcl.com</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/mdurgin</t>
+          <t>VP, Content Service &amp; Partnership</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>18.18%</t>
+          <t>TCL</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Dover City, Kent County</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://rocketreach.co/matthew-durgin-email_49018226</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/mdurgin_last-year-we-had-the-most-creative-and-open-activity-7307840566187163652-qiux</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Cat Zhang</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Cat Zhang - Account Executive @ Stripe</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/catherinezhangx</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Carrie Eidsmoe</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/187527?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Cayce Kelly</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Terry Eidsmoe</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Terry Eidsmoe - Vendor Operations Analyst</t>
-        </is>
-      </c>
+          <t>cayce@inkmediapr.co.uk</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/terry-eidsmoe-4aa381</t>
+          <t>Publicist</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>Realscreen Summit &amp; NATPE Global</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>50.0%</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+          <t>Burbank</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Cayce Kelly</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Cayce Kelly - Ink Media Corporation</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/cayce-kelly-4930639</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Nick Ekum</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227407?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sr. Director Production Operations</t>
+          <t>Capri S Cafaro</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Nick Ekum</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Nick Ekum - Sr. Director of Production Operations - Shout! ...</t>
-        </is>
-      </c>
+          <t>ccafaro77@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/nickekum</t>
+          <t>Creator/Executive Producer/Host</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>America The Bountiful Productions</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Hubbard</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://rocketreach.co/nick-ekum-email_5803368</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/nickekum_alf-is-back-i-love-shout-factory-activity-6903038737127747584--av3?t=%7Bseek_to_second_number%7D</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Andi Elliott</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227952?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Director Sales &amp; Membership Services at DEG</t>
+          <t>Cecilia Gómez de la Torre</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Andi Elliott</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Andi Elliott - Director, Sales and Membership Services - DEG</t>
-        </is>
-      </c>
+          <t>cecilia@cecig.com.pe</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/andielliott</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>Ceci G Entertainment &amp; Consulting</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>Lima</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Cecilia Gómez de la Torre Miranda</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Cecilia Gómez de la Torre Miranda - CEO en Ceci G ...</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>https://pe.linkedin.com/in/cecilia-g%C3%B3mez-de-la-torre-miranda-0709a4ba</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>80.0%</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/andi-elliott-email_7564384</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Jennifer Eng</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/195700?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Spec Adoption Program Manager</t>
+          <t>Rajsudan P Shivagnanasundaram</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jennifer Eng</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Jennifer Eng - Ecommerce Product Manager - Avid</t>
-        </is>
-      </c>
+          <t>ceo@filmone.in</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/thejennifereng</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>Film One</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Colombo</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Silviu Epure</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/214738?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SVP, Content Globalization at Blu Digital Group</t>
+          <t>Mario Domina</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Silviu Epure</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Silviu Epure - Blu Digital Group - a TransPerfect company</t>
-        </is>
-      </c>
+          <t>ceo@jerseyshoreentertainment.com</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/silviuepure</t>
+          <t>CEO-Executive Producer</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>Jersey Shore Entertainment</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>Fort Lauderdale</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/bludigitalgroup_our-svp-of-content-globalization-silviu-epure-activity-7115032761366695936-daEZ</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Katherine Erdman</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/196291?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Product Manager at Google</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Katherine Erdman</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Katherine Erdman - Ellicott City, Maryland, United States</t>
-        </is>
-      </c>
+          <t>Morgan Hertzan</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/katherine-erdman-045033103</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>Bright North Studios</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Morgan Hertzan</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Morgan Hertzan - Emmy Award-Winning CEO, Media ...</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/morganhertzan</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Paul Erickson</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227419?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Principal Analyst at Omdia</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Paul Erickson</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Paul Erickson - Austin, Texas Metropolitan Area</t>
-        </is>
-      </c>
+          <t>Anne Barnhart</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/paerickson</t>
+          <t>Co-Director, Producer</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>Livin' in Black &amp; White Sitcom</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>Highlands Ranch</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/paerickson_advertising-activity-7275225952844963840-iKME</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Hasti Eskandari</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/223546?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CEO of Byteguard / TPN Assessor at ByteGuard LLC</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>Chuck Saftler</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>chuck.saftler@fxnetworks.com</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Head of Acquisitions, Disney Entertainment</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>The Walt Disney Company</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Burbank</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Madisen Farace</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/187779?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Mauro Fabbricotti</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Co-Founder &amp; CFO</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Full Board Media Srl</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/adaptglobal_localization-ailocalization-digitalmedia-activity-7285795967801479168-kzsh</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Elizabeth Fellner</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/226089?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Account Executive at TransPerfect</t>
+          <t>Cindy Fabian</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Betsy Fellner</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Betsy Fellner - Account Executive, Media + Entertainment</t>
-        </is>
-      </c>
+          <t>cindy@westcoastmedia.ventures</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/betsy-fellner-6043a7107</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>50.0%</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>50.0%</t>
-        </is>
-      </c>
+          <t>Founder</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/betsy-fellner-6043a7107_last-month-i-was-lucky-enough-to-attend-transperfects-activity-7320554985501376514-AY8-</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ljupco Fidanovski</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/212311?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CEO</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Ljupco N. Fidanovski, MBA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Ljupco N. Fidanovski, MBA - E3 Management Solutions</t>
-        </is>
-      </c>
+          <t>Mark Bishop</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/ljupco-n-fidanovski-mba-7101a8</t>
+          <t>Co-President</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Blue Ant Media</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Mark Bishop</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Mark Bishop - Toronto, Ontario, Canada | Professional Profile</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>https://ca.linkedin.com/in/markjwbishop</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/ljupco-fidanovski-email_375867607#:~:text=Ljupco%20Fidanovski%2C%20based%20in%20Los,Elavare%20and%20Grades%20of%20Green.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/ljupco-n-fidanovski-mba-7101a8_nonprofit-losangeles-community-activity-6915730458076995584-epBJ</t>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/blue-ant-media_content-climate-blue-ant-studios-mark-bishop-activity-7384278972651626496-yL01</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/mark-bishop-email_84200351</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Barbara Ford Grant</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/216419?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Industry Advisor at Filmmaker</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Barbara Ford Grant</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Barbara Ford Grant - The Walt Disney Studios</t>
-        </is>
-      </c>
+          <t>Marc Hertfelder</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/barbaraanneford</t>
+          <t>Consultant</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>Al Jazeera Network</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Doha</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/barbaraanneford_such-a-pleasure-to-host-this-conversation-activity-7274443611348328448-_NEB</t>
-        </is>
-      </c>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>46037</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Melody Fowler</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227208?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Claudia Silva</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Melody Fowler</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Melody Fowler - Manufacturing Engineer</t>
-        </is>
-      </c>
+          <t>claudia_silva@spe.sony.com</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/melody-fowler-46b8a6a0</t>
+          <t>VP, Distribution - LATAM</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Sony Pictures Television</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
+          <t>Culver City</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Claudia Silva</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Claudia Silva - Media Production Professional</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>https://mx.linkedin.com/in/claudia-silva-8271b954</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Amy Galicia</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/215193?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Project Manager - Global Localization at NBCUniversal</t>
+          <t>Cliff Schwarz</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Amy Galicia</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Amy Galicia - NBCUniversal</t>
-        </is>
-      </c>
+          <t>cliff@thatstvmagic.com</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/amy-galicia-9b624b88</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>That’s TV Magic</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
+          <t>Long Beach</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/amy-galicia-9b624b88_go-big-again-return-of-cinema-120-activity-6705163303435534336-p3w2</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Ben Schwartz</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Ben Schwartz - Copywriter &amp; Storyteller | Helping Brands ...</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/ben-schwartz-984768b7</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Stefanie Gamberg</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/196045?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Founder &amp; Principal Consultant at Topanga Product Solutions</t>
+          <t>Crissie Miller</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Stefanie Gamberg</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Stefanie Gamberg - base</t>
-        </is>
-      </c>
+          <t>cmiller@upentertainment.com</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/stefaniegamberg</t>
+          <t>VP, Content Strategy</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>Up Entertainment, LLC</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Crissie Miller</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Crissie Miller - Vice President of Content Strategy at UP ...</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/crissie-miller-1487b955</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/stefanie-gamberg-email_7799466</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/stefaniegamberg_feme-mediaandentertainment-activity-7229286381510873088-8Bx0</t>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/crissie-miller-1487b955_im-delighted-to-announce-that-i-have-been-activity-7351665171494232064-m6jZ</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/uptv-marketing-department_b5daf38bf42e504a</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Andy Garland</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/228161?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sr solutions architect</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Andrew Garland</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Andrew Garland - Technologent</t>
-        </is>
-      </c>
+          <t>Bobby Gomez</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/angarland</t>
+          <t>Content Director</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>Golden State Entertainment, Golden State</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://rocketreach.co/andrew-garland-email_2640012</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/andrew-garland-71b7a245_microsoft-certified-azure-solutions-architect-activity-7264626380217233408-XTUs</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Bobby Gomez</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Bobby Gomez - Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bobbyandrewgomez</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/bobbyandrewgomez_foo-fighters-to-host-streaming-event-on-sunday-activity-7065441629616181248-kSJO?trk=public_profile_like_view</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Brett Gavin</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227482?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Dir Marketing and Partnerships at BOOMERANG</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>Cody Mock</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>codycmock@gmail.com</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/brett-gavin-email_761133405</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/brettkgavin_gday-mates-im-incredibly-thankful-for-activity-7267670112353042432-6dmT</t>
-        </is>
-      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" s="2" t="n">
+        <v>46005</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Rob Gelick</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/212126?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GM, CPO at Prior Yahoo, Paramount</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Rob Gelick</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Rob Gelick - United States | Professional Profile</t>
-        </is>
-      </c>
+          <t>Robert Nagdlen</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/robgelick</t>
+          <t>Content Strategy &amp; Planning</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>Roku</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
+          <t>Santa Monica</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/robgelick_paramount-streaming-new-experiences-and-activity-7135763968425377792--Ofu?trk=public_profile_like_view</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Dan Germain</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/190891?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GTM Studio Account Executive</t>
+          <t>Craig Junner</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Dan Germain</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Dan Germain - Founder - Advocacy as a Service</t>
-        </is>
-      </c>
+          <t>craig.junner@blueantmedia.com</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/dgermain</t>
+          <t>SVP, Programming &amp; Content Strategy, Global Media</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>Blue Ant Media</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/dangermain_humans-are-good-at-being-creative-and-also-activity-7105506423400230913-P3Bg</t>
-        </is>
-      </c>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/sobraljulius_craig-junner-has-my-vote-activity-7068674149728096256-0DE3</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Craig German</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/187458?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Consultant</t>
+          <t>David de Bie</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Craig German</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Craig German - Flowery Branch, Georgia, United States</t>
-        </is>
-      </c>
+          <t>d.debie@fcce.tv</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/craig-german-83802641</t>
+          <t>Chief Commercial Officer</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>FCCE B.V.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Dave de Bie</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Dave de Bie - Banijay Entertainment</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>https://nl.linkedin.com/in/davedebie</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
           <t>66.67%</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/craig-german-email_794753</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/david-de-bie-email_25515345</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ray Gilmartin</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/192644?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Ray Gilmartin</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Ray Gilmartin - SSE Airtricity</t>
-        </is>
-      </c>
+          <t>Christiana Carroll-Becerra</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://ie.linkedin.com/in/ray-gilmartin-39b9abb7</t>
+          <t>Creative Executive/Showrunner</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>A Tiny Audience</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://rocketreach.co/ray-gilmartin-email_69289118</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Christiana Carroll</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Christiana Carroll- Becerra - Emmy-Nominated Showrunner</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/chriscarrollbecerra</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kristin Glushon</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/212112?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Executive Producer at Nexus Studios</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Kristin Glushon</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Kristin Glushon - Nexus Studios</t>
-        </is>
-      </c>
+          <t>Christian Gamboa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/kristinglushon</t>
+          <t>Creative Head</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>ABS-CBN Studios</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/kristin-glushon-email_5750100</t>
-        </is>
-      </c>
+          <t>Valenzuela City</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/kristinglushon_newrole-executiveproducer-nexusstudios-activity-7226587827600293889-S50b</t>
-        </is>
-      </c>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Zach Gompertz</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/228266?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Manager market intelligence</t>
+          <t>Daniela Villon</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Zach Gompertz</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Zach Gompertz - Manager, Worldwide Market Intelligence</t>
-        </is>
-      </c>
+          <t>daniela.villon@lot-plus.com</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/zachgompertz</t>
+          <t>Business Development Manager</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>LOT PLUS SAC</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Chiclayo</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Daniela Villon</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Daniela Villon - Propietaria</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>https://ec.linkedin.com/in/daniela-villon-387382236</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/zach-gompertz-email_23956693</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Claire Gonzalez</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227975?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Danny Dunlap</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Claire Gonzalez</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Claire Gonzalez - Curriculum and Instruction (Education)</t>
-        </is>
-      </c>
+          <t>danny@sushiandfrenchfries.com</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/clairemarie-gonzalez</t>
+          <t>Creative Technologist + Product Manager</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Sushi+FrenchFries</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+          <t>Bozeman</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>National Capital Territory</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ellen Goodridge</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/226947?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Head of Studio Content Services, at Amazon MGM Studios</t>
+          <t>David Begnaud</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ellen Goodridge</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Ellen Goodridge - Culver City, California, United States</t>
-        </is>
-      </c>
+          <t>david@davidbegnaud.com</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/ellen-goodridge-676599</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>18.18%</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
+          <t>Founder, CEO</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/ellen-goodridge-676599_we-did-it-yesterday-the-amazon-mgm-studios-activity-7221366785038598144-x4yY</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Matt Gordon</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/228291?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Matt Gordon</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Matt Gordon - Tech Lead - Meta</t>
-        </is>
-      </c>
+          <t>Balint Molnar</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/matt-gordon-14542847</t>
+          <t>Digital Product Director - LATAM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>Sony Pictures Television</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Balint Molnar</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Balint Molnar - Digital Product Director LATAM at Sony ...</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bgmolnar</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/balint-molnar-email_44116215</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kristen Gorlitz</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/191931?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Assistant Manager</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Kristen Gorlitz 🔜 AWE</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Kristen Gorlitz 🔜 AWE - Assistant Manager - NBCUniversal</t>
-        </is>
-      </c>
+          <t>Olimpia Ciribe</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/kristengorlitz</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>Sony Pictures Television</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Olimpia Ciribe</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Olimpia Ciribe - Sony Pictures Entertainment</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/olimpia-ciribe-25579262</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/kristen-gorlitz-email_32449120</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/olimpia-ciribe-email_63320841</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Randy Greenberg</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/194117?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Randy Greenberg</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Randy Greenberg - THE GREENBERG GROUP</t>
-        </is>
-      </c>
+          <t>Katherine Weinstein</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/randy-greenberg-b2848b</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Radial Entertainment</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
+          <t>Brooklyn</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Katherine Weinstein</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Katherine Weinstein - Director of North American Digital ...</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/kweinstein</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>60.0%</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/randy-greenberg-email_5652056</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/randy-greenberg-b2848b_hey-linkedin-friends-i-am-feeling-the-overload-activity-7227472888419733504-0_l2</t>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/katie-weinstein-email_40250420</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lynne Gross</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227201?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Dayna Cramer</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lynne Gross</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Lynne Gross - Manhattan Beach, California, United States</t>
-        </is>
-      </c>
+          <t>dcramer@radialentertainment.com</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/lynnegross</t>
+          <t>Sr. Marketing Director, Ads &amp; Events</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Radial Entertainment</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Dayna Cramer</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Dayna Cramer - Los Angeles, California, United States</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/daynacramer</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>22.22%</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/daynacramer_shout-factory-commemorates-20th-anniversary-activity-7085666644991086592-_HDw</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/dayna-cramer-email_40417202</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Kienan Hanrahan</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227517?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive at LILT</t>
+          <t>Don Depoe</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Kienan Hanrahan</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Kienan Hanrahan - LILT AI</t>
-        </is>
-      </c>
+          <t>dd@dept9studios.com</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/kienan-hanrahan-ba766b12</t>
+          <t>President</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>Dept.9 Studios</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+          <t>Edmonton</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/kienan-hanrahan-ba766b12_exciting-new-chapter-incoming-thrilled-to-activity-7313252549954785281-P0w1</t>
-        </is>
-      </c>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>La Nita Harless</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/208044?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Manager, Library Governance at NBCUniversal</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>La Nita Harless</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>La Nita Harless - NBCUniversal Media, LLC</t>
-        </is>
-      </c>
+          <t>Sabrina Aguirre</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/lanitaharless</t>
+          <t>Director of Content Sales, Latin America</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>PBS International</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Sabrina Hall Aguirre</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Sabrina Hall Aguirre - Fox Entertainment</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/sabrina-aguirre-5b1809139</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/la-harless-email_23256410</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/anna-victoria-gray_a-month-ago-i-graduated-cum-laude-from-occidental-activity-6943287795138392064-oLXo?trk=public_profile_like_view</t>
-        </is>
-      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Charis Hearn</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/189515?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Diane Tripp</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Charis Hearn</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Charis Hearn - Manager - NBCUniversal Media, LLC</t>
-        </is>
-      </c>
+          <t>dianetrippmedia@outlook.com</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/charishearn</t>
+          <t>VP Sales</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Woodcut Intl. LLC</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
+          <t>Hants</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Hampshire, England</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Diane Tripp</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Diane Tripp - Senior Executive Global Sales/Co-Productions</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/diane-tripp-3976561</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>28.57%</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Yen Hoang</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227451?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Yen Hoang</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Yen Hoang - Industrial Technology Solutions LLC</t>
-        </is>
-      </c>
+          <t>Luis Tavel</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/yen-hoang-56431a199</t>
+          <t>Director of Photography</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Livin' in Black &amp; White Sitcom</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
+          <t>Highlands Ranch</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Luis Tavel</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Luis Tavel - Photographer | Videographer | Audio</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/luistavel-essentialimage</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/yen-hoang-email_4170328</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Bob Hoff</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/209989?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Advisor at Self</t>
+          <t>Daniel Kornblit</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Bob Hoff</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Bob Hoff - Consultant - Self-Employed</t>
-        </is>
-      </c>
+          <t>dkornblit@freebie.tv</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/bob-hoff-91471935</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>Freebie TV</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/daniel-kornblit-email_761457677#:~:text=Daniel%20Kornblit%20Summary,Pronet%20Ltd%20and%20Mobile%20Messenger.</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Jay Hoffman</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/228493?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Director Feature Servicing - SVOD/EST/VOD at Nbcuniversal</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>Dorian Rowe</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>drowe@edmontonscreen.com</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Film Commissioner</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Edmonton Screen</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Edmonton</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>46037</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/edmontonscreen_audiences-are-connecting-with-canadian-stories-activity-7404225856023408640-c6Sw</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Zack Houck</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/215732?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Zack Houck</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Zack Houck - Account Manager - ProArt &amp; Distribution - ASUS</t>
-        </is>
-      </c>
+          <t>Vinitha Nair</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/zack-houck-53928199</t>
+          <t>Director, Content Acquisitions</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Paramount</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/vinitha-nair-email_66088901</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hunter Hsieh</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/195536?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Hunter Hsieh</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Hunter Hsieh</t>
-        </is>
-      </c>
+          <t>Lauren Behar</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/hunter-hsieh</t>
+          <t>Director, Content Acquisitions &amp; VOD</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>NBCUniversal Telemundo Enterprises</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Lauren Behar</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Lauren Behar - Director of Content Acquisitions &amp; Video On ...</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/lauren-behar3</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/hunter-hsieh-email_35899052</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/lauren-behar3_today-marks-10-years-at-nbcuniversal-a-activity-7231335105884000256-VXTP</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/lauren-behar-email_114213794</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Thomas Hughes</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/215578?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EVP Distribution Strategy &amp; Global Partnerships at Angel Studios</t>
+          <t>Dillon Siler</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Thomas Hughes</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Thomas Hughes - Los Angeles, California, United States</t>
-        </is>
-      </c>
+          <t>dsiler@lionsgate.com</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/thomaswhughes</t>
+          <t>VP, Domestic TV Sales</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>Lionsgate Entertainment</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
+          <t>Santa Monica</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Dillon Siler</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Dillon Siler - Lionsgate</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dillonsiler</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>37.5%</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/thomas-hughes-email_2133190</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/thomaswhughes_angel-studios-names-thomas-hughes-head-of-activity-7135720108219367424-bYFD?trk=public_profile_like_view</t>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/lionsgate_lionsgatelife-lionsgate-activity-7232106620342652928-24sv</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/dillon-siler-email_837675467</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Tony Huidor</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/226088?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>COO and CTO at Cineverse</t>
+          <t>Damián Villar</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Tony Huidor</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Tony Huidor - Cineverse</t>
-        </is>
-      </c>
+          <t>dvillar@televisa.com.mx</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/thuidor</t>
+          <t>General Director of Content and Production</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>TelevisaUnivision</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://rocketreach.co/tony-huidor-email_3369783</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/thuidor_cineverse-accelerates-technology-monetization-activity-7330336701870956546-xRkF</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/luis-v%C3%A9lez-ladr%C3%B3n-de-guevara-78340542_bravo-daniel-activity-7151345647198031872-GIaj</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Svetlana Jacobs</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/227590?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>VP for Global Localization</t>
+          <t>Edward Allen</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Svetlana Jacobs</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Svetlana Jacobs - Adapt</t>
-        </is>
-      </c>
+          <t>eallen@miercolesentertainment.com</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/svetlana-jacobs</t>
+          <t>Co-CEO</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>Miercoles Entertainment Studio</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Santa Monica</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>EDWARD ALLEN</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>EDWARD ALLEN - CEO</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/edward-allen-34951658</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
           <t>33.33%</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/svetlana-jacobs-email_506884387</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/svetlana-jacobs_goteam-goadapt-activity-7303781919022886912-4Tby</t>
-        </is>
-      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Brian C. Janes</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/213620?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>VP, Distribution Operations &amp; IT at pocket.watch</t>
+          <t>Edward Seaman</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Brian C. Janes</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Brian C. Janes - pocket.watch</t>
-        </is>
-      </c>
+          <t>ed@mvd.cc</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/briancjanes</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>44.44%</t>
+          <t>MVD Entertainment</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Pottstown</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://rocketreach.co/brian-janes-email_41018384</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Ed Seaman</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Ed Seaman - Oaks, Pennsylvania, United States</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ed-seaman-7686991</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ryan Jaramillo</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/195430?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Eduardo González Jiménez</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ryan Jaramillo</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Ryan Jaramillo - Technical Specialist - Verdacity</t>
-        </is>
-      </c>
+          <t>eduardo.gon.sim@gmail.com</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/ryan-jaramillo-0804a474</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Sim MX TV</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>eduardo gonzalez jimenez</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>eduardo gonzalez jimenez - director general en ideas ...</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>https://mx.linkedin.com/in/eduardo-gonzalez-jimenez-69a17830</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/posts/eduardo-gonz%C3%A1lez-jim%C3%A9nez-29a391133_honored-for-having-been-part-of-this-great-activity-7164257367847587842-UULt</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/eduardo-gonzalez-jimenez-email_129746251</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Saj Jayasinghe</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/206653?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Michael Hyon Johnson</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Director, Streaming &amp; Content Operations, ElectricNOW</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Electric Entertainment</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/saj-jayasinghe-818178195_whip-media-fastrack-activity-7051987924367659008-Yf61</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Lauren Johnson</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/226653?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Re-recording Stage Engineer</t>
+          <t>Emilia Nuccio</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Lauren J.</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Lauren J. - Re-recording Stage Engineer - Warner Bros. ...</t>
-        </is>
-      </c>
+          <t>emilianuccio@enorollc.com</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/musictechie13</t>
+          <t>President</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>Enoro Media</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>50.0%</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+          <t>Astoria</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/emilia-nuccio-email_2380052</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Aaron Jones</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/212446?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>tech</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Aaron Jones</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Aaron Jones - Swine Technical Leader - TechMix</t>
-        </is>
-      </c>
+          <t>Richard Middleton</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/aaron-jones-7268b1159</t>
+          <t>Editor</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Broadcast Magazine</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Richard Middleton</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Richard Middleton - Head of Content, International</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>https://uk.linkedin.com/in/richard-middleton-65369650</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/richard-middleton-email_18946680</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Amy Jupiter</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/223549?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Founder &amp; Chief Experience Designer at By Jove: A Collective of Perspective</t>
+          <t>Erica Reis</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Amy Jupiter</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Amy Jupiter - Los Angeles Metropolitan Area</t>
-        </is>
-      </c>
+          <t>ericareistv@gmail.com</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/amyjupiter</t>
+          <t>Head of New Business &amp; Content</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>Rede Brasil RBTV</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Erica Reis</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Erica Reis - Marketing | Commercial Planning</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>https://ie.linkedin.com/in/ericaadreis</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>20.0%</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/amyjupiter_emerging-experiences-creative-director-activity-7307283778589048833-Ib-X</t>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/erica-reis-email_39400058</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Laura Kanamori</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/226996?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>tech</t>
+          <t>Ervin Musabelliu</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Laura Kanamori</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Laura Kanamori - Paramount Home Entertainment</t>
-        </is>
-      </c>
+          <t>ervin@good2greatproductions.com</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/laurakanamori</t>
+          <t>Creator</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>Good2Great Productions</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>100.0%</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr"/>
+          <t>Culver City</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/posts/laurakanamori_senior-brand-manager-activity-6948110279939411968-CpW3?trk=public_profile_like_view</t>
-        </is>
-      </c>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Jonathon Kane</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/191155?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Business Development Manager</t>
+          <t>Issam Al Hijjawi</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Jonathan Kane</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Jonathan Kane - Business development Manager - Golf - IMG</t>
-        </is>
-      </c>
+          <t>esamhijawi@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://uk.linkedin.com/in/jonathan-kane-50798a3</t>
+          <t>General Manager &amp; Owner</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>IH Production House</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>50.0%</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>https://rocketreach.co/jonathan-kane-email_8575832</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
+          <t>Amman</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Issam Al</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Issam Al-hijjawi - General Manager &amp; Owner</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>https://jo.linkedin.com/in/issam-al-hijjawi-22a47561</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/nscc-international-management_b5c06310f42e0863</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Arthur Kim</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/213536?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Director, Content Operations at Tubi</t>
+          <t>Evan Shapiro</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Arthur Kim</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Arthur Kim - Los Angeles Metropolitan Area</t>
-        </is>
-      </c>
+          <t>eshapiro@eshap.tv</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/arthur-kim-6b7455</t>
+          <t>Producer/Owner</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>28.57%</t>
+          <t>ESHAP</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://rocketreach.co/arthur-kim-email_208995743</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr"/>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Evan Shapīro</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Evan Shapīro - New York, New York, United States</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/eshap-media-cartographer</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>https://rocketreach.co/evan-shapiro-email_370320091</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Jung Kim</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/215455?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Assistant at Lionsgate</t>
+          <t>Fernando Vargas</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Hee</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Hee-Jeong Kim (she/her), CPA, CMA - Director, Finance</t>
-        </is>
-      </c>
+          <t>fernandovargas2025@outlokk.com</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://ca.linkedin.com/in/heejeongkim</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>Vardo Producciones</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>Mexico City</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Fernando Vargas</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Fernando Vargas - Competitiveness, Technology and ...</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>https://ar.linkedin.com/in/fernandovargascuevas/en</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>40.0%</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Robert King</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/226655?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Host- Influencer at AI Gen.News Web3.Ventures</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Robert King</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Robert King - Web3.ventures aigen. ...</t>
-        </is>
-      </c>
+          <t>Laurel Weir</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/stylela</t>
+          <t>EVP/Head of Programming and Acquisitions</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>Paramount</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Laurel Weir</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Laurel Weir - New York City Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/laurel-weir-2202aa156</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
           <t>100.0%</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/posts/lingamfelter_web3-blockchain-crypto-activity-7206691191860383744-AnJn</t>
-        </is>
-      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Clare Kiriln</t>
+          <t>https://xchange.natpe.com/xchange/main/profile/public/216326?returnTo=%2Fxchange%2Fnatgl26%2Fpeople%2F%3FpageIndex%3D80%26searchText%3D%26searchFilter%3D%26sortby%3D%26sortorder%3D%26following%3D%26followers%3D%26profileId%3D%26projectId%3D%26interestB%3D%26interestP1%3D%26interestP2%3D</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>VP Marketing</t>
+          <t>Flavio Morales</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Clare K.</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Clare K. - SymphonyAI</t>
-        </is>
-      </c>
+          <t>flavioemorales@gmail.com</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/clarekirlin</t>
+          <t>Executive Producer</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>JK Media</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
+          <t>Durham</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Flavio Morales</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Flavio Morales - Mexican American Media Maverick</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/flaviomorales</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
           <t>50.0%</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
